--- a/WIP/Documents/F_Taxi_UserCaseList_v1.1.xlsx
+++ b/WIP/Documents/F_Taxi_UserCaseList_v1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>UC-01</t>
   </si>
@@ -74,9 +74,6 @@
     <t>UC-08</t>
   </si>
   <si>
-    <t>Update Address</t>
-  </si>
-  <si>
     <t>UC-09</t>
   </si>
   <si>
@@ -86,33 +83,18 @@
     <t>UC-10</t>
   </si>
   <si>
-    <t>Update Current Location</t>
-  </si>
-  <si>
     <t>UC-11</t>
   </si>
   <si>
-    <t>Update Driver Status</t>
-  </si>
-  <si>
     <t>UC-12</t>
   </si>
   <si>
-    <t>Select Availabel Vehicle</t>
-  </si>
-  <si>
     <t>UC-13</t>
   </si>
   <si>
-    <t>List Vip Rider</t>
-  </si>
-  <si>
     <t>UC-14</t>
   </si>
   <si>
-    <t>Delete Vip Rider</t>
-  </si>
-  <si>
     <t>UC-15</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>UC-17</t>
   </si>
   <si>
-    <t xml:space="preserve">Reject Trip </t>
-  </si>
-  <si>
     <t>UC-18</t>
   </si>
   <si>
@@ -149,33 +128,18 @@
     <t>UC-21</t>
   </si>
   <si>
-    <t>My Trip</t>
-  </si>
-  <si>
     <t>UC-22</t>
   </si>
   <si>
-    <t>Register Promotion Trip</t>
-  </si>
-  <si>
     <t>UC-23</t>
   </si>
   <si>
-    <t>My Promotion Trips</t>
-  </si>
-  <si>
     <t>UC-24</t>
   </si>
   <si>
-    <t>Update Promotion Trip</t>
-  </si>
-  <si>
     <t>UC-25</t>
   </si>
   <si>
-    <t>Cancel Promotion Trip</t>
-  </si>
-  <si>
     <t>UC-26</t>
   </si>
   <si>
@@ -188,9 +152,6 @@
     <t>UC-28</t>
   </si>
   <si>
-    <t>Reset Password</t>
-  </si>
-  <si>
     <t>UC-29</t>
   </si>
   <si>
@@ -203,15 +164,9 @@
     <t>UC-32</t>
   </si>
   <si>
-    <t>Get Feedback Info</t>
-  </si>
-  <si>
     <t>UC-33</t>
   </si>
   <si>
-    <t>Send Feedback</t>
-  </si>
-  <si>
     <t>UC-34</t>
   </si>
   <si>
@@ -233,48 +188,12 @@
     <t>UC-37</t>
   </si>
   <si>
-    <t>Update Current Status</t>
-  </si>
-  <si>
-    <t>UC-38</t>
-  </si>
-  <si>
-    <t>Get Near Driver</t>
-  </si>
-  <si>
-    <t>UC-39</t>
-  </si>
-  <si>
     <t>Create Trip</t>
   </si>
   <si>
-    <t>UC-40</t>
-  </si>
-  <si>
-    <t>Check Trip Status</t>
-  </si>
-  <si>
-    <t>UC-41</t>
-  </si>
-  <si>
-    <t>UC-42</t>
-  </si>
-  <si>
-    <t>Rate Trip</t>
-  </si>
-  <si>
-    <t>UC-43</t>
-  </si>
-  <si>
     <t>List Complete Trip</t>
   </si>
   <si>
-    <t>UC-44</t>
-  </si>
-  <si>
-    <t>Find Promotion Trip</t>
-  </si>
-  <si>
     <t>User Case ID</t>
   </si>
   <si>
@@ -284,13 +203,61 @@
     <t>User Case</t>
   </si>
   <si>
-    <t>Rider Image And Promotion Code</t>
-  </si>
-  <si>
-    <t>Add Vip Rider</t>
-  </si>
-  <si>
-    <t>UC-45</t>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>Find Lost Asset</t>
+  </si>
+  <si>
+    <t>Send Application Feedback</t>
+  </si>
+  <si>
+    <t>View Bill Detail</t>
+  </si>
+  <si>
+    <t>Rate Driver</t>
+  </si>
+  <si>
+    <t>List Vip Customer</t>
+  </si>
+  <si>
+    <t>Add Vip Customer</t>
+  </si>
+  <si>
+    <t>Delete Vip Customer</t>
+  </si>
+  <si>
+    <t>Notification Lost Asset</t>
+  </si>
+  <si>
+    <t>Change Status</t>
+  </si>
+  <si>
+    <t>Reject Trip</t>
+  </si>
+  <si>
+    <t>Group of function</t>
+  </si>
+  <si>
+    <t>Authenticate</t>
+  </si>
+  <si>
+    <t>Manage Profile</t>
+  </si>
+  <si>
+    <t>Manage Favorite</t>
+  </si>
+  <si>
+    <t>Interact with Trip</t>
+  </si>
+  <si>
+    <t>Manage Vip Customer</t>
+  </si>
+  <si>
+    <t>Call Favorite Driver</t>
+  </si>
+  <si>
+    <t>Call Taxi Center</t>
   </si>
 </sst>
 </file>
@@ -312,21 +279,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -349,17 +310,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -642,526 +649,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="2" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B38"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WIP/Documents/F_Taxi_UserCaseList_v1.1.xlsx
+++ b/WIP/Documents/F_Taxi_UserCaseList_v1.1.xlsx
@@ -351,10 +351,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,8 +369,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -692,10 +695,10 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -706,8 +709,8 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
@@ -716,8 +719,8 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -726,8 +729,8 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -738,8 +741,8 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
@@ -748,8 +751,8 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
@@ -758,8 +761,8 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -770,8 +773,8 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
@@ -780,8 +783,8 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
@@ -790,8 +793,8 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
@@ -800,7 +803,7 @@
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>60</v>
@@ -810,7 +813,7 @@
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>61</v>
@@ -820,8 +823,8 @@
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
@@ -830,8 +833,8 @@
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -842,8 +845,8 @@
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -852,8 +855,8 @@
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
@@ -862,8 +865,8 @@
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
@@ -872,8 +875,8 @@
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
@@ -882,10 +885,10 @@
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -896,8 +899,8 @@
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
@@ -906,8 +909,8 @@
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
@@ -916,8 +919,8 @@
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -928,8 +931,8 @@
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
@@ -938,8 +941,8 @@
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
@@ -948,7 +951,7 @@
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>17</v>
@@ -958,8 +961,8 @@
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -970,8 +973,8 @@
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
         <v>65</v>
       </c>
@@ -980,8 +983,8 @@
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
@@ -990,7 +993,7 @@
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>67</v>
@@ -1000,7 +1003,7 @@
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>68</v>
@@ -1010,8 +1013,8 @@
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1022,8 +1025,8 @@
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>69</v>
       </c>
@@ -1032,8 +1035,8 @@
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
@@ -1042,8 +1045,8 @@
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
@@ -1052,8 +1055,8 @@
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
         <v>32</v>
       </c>
@@ -1062,8 +1065,8 @@
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="2" t="s">
         <v>62</v>
       </c>

--- a/WIP/Documents/F_Taxi_UserCaseList_v1.1.xlsx
+++ b/WIP/Documents/F_Taxi_UserCaseList_v1.1.xlsx
@@ -351,14 +351,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,9 +367,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +680,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -806,7 +803,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,9 +811,11 @@
         <v>21</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
@@ -834,9 +833,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
@@ -994,7 +991,9 @@
         <v>43</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1014,9 +1013,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1074,15 +1071,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C33:C38"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="B21:B38"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C16:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="C14:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
